--- a/Diccionario_Prensa.xlsx
+++ b/Diccionario_Prensa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emper\Documents\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emper\Documents\BD\INFO133-equipo19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E25976A-7AEE-45ED-978E-7C6D0D80A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8368E8BF-3836-4150-A747-17A41F37D172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C9627BE-EA01-46B4-8D16-2BEE81F4B464}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>Nombre</t>
   </si>
@@ -107,18 +107,12 @@
     <t>XPATH_T</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>∞</t>
-  </si>
-  <si>
     <t>La Compleja</t>
   </si>
   <si>
@@ -198,6 +192,24 @@
   </si>
   <si>
     <t>XPATH para obtener la fecha de la noticia de Ejemplo</t>
+  </si>
+  <si>
+    <t>VarChar</t>
+  </si>
+  <si>
+    <t>TinyText</t>
+  </si>
+  <si>
+    <t>/div[1]/section/article/header/div/div[1]/h1/div/text()</t>
+  </si>
+  <si>
+    <t>/div[1]/section/article/header/div/div[2]/div/time/small/b</t>
+  </si>
+  <si>
+    <t>/div[1]/section/article/div[3]/div[6]/div/div[2]/div[2]</t>
+  </si>
+  <si>
+    <t>/div[1]/div/main/section[2]/div[1]/article[2]/div/div[2]</t>
   </si>
 </sst>
 </file>
@@ -284,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -293,8 +305,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,13 +646,13 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="57.77734375" customWidth="1"/>
-    <col min="6" max="6" width="46.21875" customWidth="1"/>
+    <col min="6" max="6" width="57.77734375" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -650,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="E2" s="11">
+        <v>255</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -670,19 +704,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -690,19 +724,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="9">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10">
         <v>2958465</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>35131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -713,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="E5" s="12">
+        <v>255</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -736,19 +770,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="E6" s="13">
+        <v>255</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -759,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="E7" s="8">
+        <v>255</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -779,19 +813,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="5">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2147483647</v>
+      </c>
+      <c r="F8" s="8">
         <v>37892</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -799,19 +833,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8">
+        <v>24</v>
+      </c>
+      <c r="E9" s="9">
         <v>2958465</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <v>38162</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -822,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="E10" s="14">
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -842,19 +876,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1000</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -862,19 +896,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1000</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -882,17 +916,19 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -903,19 +939,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1000</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -923,17 +959,19 @@
         <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="G15" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -941,17 +979,19 @@
         <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="G16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -959,17 +999,19 @@
         <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="6"/>
+      <c r="E17" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G17" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
